--- a/Yahtzee scores.xlsx
+++ b/Yahtzee scores.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clappg\Documents\GitHub\Personal_library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AE37F4-280D-45E4-AD8A-F0FE8D88EA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="24960" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -144,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -223,12 +242,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -263,10 +285,10 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$32</c:f>
+              <c:f>Sheet1!$N$3:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>199</c:v>
                 </c:pt>
@@ -280,6 +302,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -314,6 +341,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -345,6 +377,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -466,6 +503,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -566,6 +608,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -642,6 +689,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -733,6 +785,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -842,6 +899,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -870,6 +932,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -898,6 +965,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -929,6 +1001,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -957,6 +1034,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-206B-41CF-846F-092C2719F81F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1010,7 +1092,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1026,7 +1107,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1095,13 +1176,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
@@ -1115,6 +1196,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46CC-433B-8C7A-85859992720E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1135,6 +1221,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1201,7 +1288,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1231,7 +1324,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1292,7 +1391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1325,9 +1424,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1360,6 +1476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1535,14 +1668,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,7 +2003,9 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>250</v>
+      </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1921,7 +2056,9 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7">
+        <v>226</v>
+      </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3055,7 +3192,9 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="7">
+        <v>214</v>
+      </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -3086,7 +3225,9 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="7">
+        <v>209</v>
+      </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -3173,7 +3314,9 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7">
+        <v>264</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3306,7 +3449,7 @@
       </c>
       <c r="I41">
         <f>COUNT(A3:L39)</f>
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -3315,7 +3458,7 @@
       </c>
       <c r="I42" s="3">
         <f>_xlfn.STDEV.S(A3:L39)</f>
-        <v>50.116596555652343</v>
+        <v>49.382674457847358</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3333,7 +3476,7 @@
       </c>
       <c r="I43" s="3">
         <f>_xlfn.CONFIDENCE.NORM(0.05,I42,I41)</f>
-        <v>8.3920754078319248</v>
+        <v>8.122290634521498</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3343,13 +3486,13 @@
       </c>
       <c r="O43" s="5">
         <f>_xlfn.NORM.DIST(O42,I45,I42,TRUE)</f>
-        <v>0.97197078583591345</v>
+        <v>0.9736456079719138</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I44" s="4">
         <f>I43/2</f>
-        <v>4.1960377039159624</v>
+        <v>4.061145317260749</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -3359,7 +3502,7 @@
       </c>
       <c r="O44" s="5">
         <f>1-O43</f>
-        <v>2.8029214164086547E-2</v>
+        <v>2.6354392028086204E-2</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -3368,7 +3511,7 @@
       </c>
       <c r="I45" s="2">
         <f>AVERAGE(A3:L39)</f>
-        <v>230.24817518248176</v>
+        <v>230.33098591549296</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -3380,7 +3523,7 @@
       </c>
       <c r="I46" s="2">
         <f>I45+I44</f>
-        <v>234.44421288639774</v>
+        <v>234.39213123275371</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -3392,7 +3535,7 @@
       </c>
       <c r="I47" s="2">
         <f>I45-I44</f>
-        <v>226.05213747856578</v>
+        <v>226.26984059823221</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -3468,11 +3611,11 @@
       </c>
       <c r="K55">
         <f>COUNTIF($A$3:$L$39,"&gt;="&amp;I55)</f>
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L55">
         <f>COUNTIF($A$3:$L$39,"&gt;="&amp;J55)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M55">
         <f>K55-L55</f>
@@ -3497,11 +3640,11 @@
       </c>
       <c r="K56">
         <f t="shared" ref="K56:K62" si="0">COUNTIF($A$3:$L$39,"&gt;="&amp;I56)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56:L61" si="1">COUNTIF($A$3:$L$39,"&gt;="&amp;J56)</f>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56:M62" si="2">K56-L56</f>
@@ -3526,15 +3669,15 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M57">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="3"/>
@@ -3555,15 +3698,15 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M58">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="3"/>
@@ -3584,7 +3727,7 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
@@ -3592,7 +3735,7 @@
       </c>
       <c r="M59">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="3"/>
@@ -3689,7 +3832,7 @@
     <row r="63" spans="8:14" x14ac:dyDescent="0.25">
       <c r="M63">
         <f>SUM(M55:M62)</f>
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +4034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
